--- a/dock/cluster/tropb_2_prot.xlsx
+++ b/dock/cluster/tropb_2_prot.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G100"/>
+  <dimension ref="A1:G117"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,25 +471,25 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>['116', '121', '160', '162', '166', '185', '194', '199', '202', '210', '233', '238', '255', '261', '266', '275', '289', '298', '320', '338', '340', '343', '385', '389', '408', '410', '438', '449', '471', '472', '89']</t>
+          <t>['111', '163', '166', '184', '195', '204', '209', '231', '268', '272', '279', '320', '32', '357', '373', '393', '403', '408', '455', '456', '473', '496', '72', '76']</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D2" t="n">
-        <v>-52.23</v>
+        <v>-48.82</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>340</t>
+          <t>393</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>-26.32</v>
+        <v>-21.16</v>
       </c>
       <c r="G2" t="n">
-        <v>15.43</v>
+        <v>15.3</v>
       </c>
     </row>
     <row r="3">
@@ -498,25 +498,25 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>['105', '106', '132', '146', '153', '176', '196', '207', '222', '249', '259', '296', '301', '341', '356', '360', '378', '85']</t>
+          <t>['126', '12', '143', '145', '162', '164', '167', '168', '169', '170', '174', '189', '216', '222', '224', '254', '264', '276', '301', '317', '321', '338', '341', '391', '484', '48', '58', '63', '77', '84', '86']</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="D3" t="n">
-        <v>-50.55</v>
+        <v>-46.75</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>132</t>
+          <t>126</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>-22.22</v>
+        <v>-14.53</v>
       </c>
       <c r="G3" t="n">
-        <v>24.09</v>
+        <v>20.26</v>
       </c>
     </row>
     <row r="4">
@@ -525,25 +525,25 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>['123', '228', '241', '246', '284', '297', '306', '371', '375', '403', '420', '428', '445', '461', '470', '482']</t>
+          <t>['312', '313', '315', '332', '369', '394', '415', '453', '485']</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D4" t="n">
-        <v>-42</v>
+        <v>-34.46</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>420</t>
+          <t>332</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>-29</v>
+        <v>-13.83</v>
       </c>
       <c r="G4" t="n">
-        <v>10.68</v>
+        <v>10.85</v>
       </c>
     </row>
     <row r="5">
@@ -552,25 +552,25 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>['131', '140', '147', '164', '173', '188', '280', '304', '336', '344', '373', '380', '390', '413', '415', '459', '474', '55', '66', '78', '84', '94', '98']</t>
+          <t>['336', '439', '475', '494', '4']</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
-        <v>-40.47</v>
+        <v>-34.36</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>344</t>
+          <t>439</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>-13.77</v>
+        <v>0.03</v>
       </c>
       <c r="G5" t="n">
-        <v>21.18</v>
+        <v>26.77</v>
       </c>
     </row>
     <row r="6">
@@ -579,25 +579,25 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>['315', '376']</t>
+          <t>['176', '196', '211', '242', '260', '305', '329', '359', '368', '37', '407', '43', '74']</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="D6" t="n">
-        <v>-35.26</v>
+        <v>-34.1</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>376</t>
+          <t>43</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>-25.86</v>
+        <v>-9.24</v>
       </c>
       <c r="G6" t="n">
-        <v>9.390000000000001</v>
+        <v>17.13</v>
       </c>
     </row>
     <row r="7">
@@ -606,25 +606,25 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>['268', '281', '335', '424', '427', '481']</t>
+          <t>['102', '108', '132', '135', '152', '172', '212', '259', '284', '30', '330', '371', '374', '388', '395', '418', '444', '446', '464', '80', '91']</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="D7" t="n">
-        <v>-34.92</v>
+        <v>-32.16</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>424</t>
+          <t>102</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>-23.15</v>
+        <v>15.62</v>
       </c>
       <c r="G7" t="n">
-        <v>11.25</v>
+        <v>20.96</v>
       </c>
     </row>
     <row r="8">
@@ -633,25 +633,25 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>['155', '163', '181', '215', '273', '323', '59', '91']</t>
+          <t>['205']</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D8" t="n">
-        <v>-31.49</v>
+        <v>-28.56</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>205</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>-9.220000000000001</v>
+        <v>-28.56</v>
       </c>
       <c r="G8" t="n">
-        <v>10.89</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -660,25 +660,25 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>['374']</t>
+          <t>['114', '144', '150', '227', '290', '327', '354', '445', '45', '95', '99']</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D9" t="n">
-        <v>-30.64</v>
+        <v>-21.08</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>374</t>
+          <t>445</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>-30.64</v>
+        <v>-2.62</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>10.04</v>
       </c>
     </row>
     <row r="10">
@@ -687,25 +687,25 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>['247', '307', '358']</t>
+          <t>['129', '298', '334', '337', '412', '441', '497']</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D10" t="n">
-        <v>-29.54</v>
+        <v>-20.45</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>247</t>
+          <t>441</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>-23.1</v>
+        <v>23.28</v>
       </c>
       <c r="G10" t="n">
-        <v>6.76</v>
+        <v>27.93</v>
       </c>
     </row>
     <row r="11">
@@ -714,25 +714,25 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>['110', '125', '168', '209', '251', '270', '294', '326', '381', '456', '480', '490', '491', '499', '62']</t>
+          <t>['100', '109', '110', '112', '118', '11', '127', '139', '153', '155', '165', '17', '182', '191', '20', '210', '213', '22', '23', '246', '24', '253', '257', '263', '267', '270', '28', '299', '304', '310', '34', '36', '375', '3', '40', '459', '468', '47', '50', '51', '52', '54', '56', '60', '66', '7', '82', '83', '8', '9']</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="D11" t="n">
-        <v>-24.17</v>
+        <v>-18.8</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>56</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>4.82</v>
+        <v>23.24</v>
       </c>
       <c r="G11" t="n">
-        <v>19.84</v>
+        <v>19.32</v>
       </c>
     </row>
     <row r="12">
@@ -741,25 +741,25 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>['485']</t>
+          <t>['175', '220', '226', '234', '255', '289', '294', '331', '364', '399', '450', '469', '500']</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="D12" t="n">
-        <v>-23.81</v>
+        <v>-18.79</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>485</t>
+          <t>234</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>-23.81</v>
+        <v>6.78</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>12.06</v>
       </c>
     </row>
     <row r="13">
@@ -768,25 +768,25 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>['101', '118', '172', '179', '197', '212', '225', '250', '269', '272', '276', '277', '279', '295', '300', '327', '328', '354', '361', '396', '400', '443', '77']</t>
+          <t>['198', '490']</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
-        <v>-18.99</v>
+        <v>-18.62</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>361</t>
+          <t>198</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>4.06</v>
+        <v>-10.31</v>
       </c>
       <c r="G13" t="n">
-        <v>16.44</v>
+        <v>8.300000000000001</v>
       </c>
     </row>
     <row r="14">
@@ -795,25 +795,25 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>['175', '293', '419']</t>
+          <t>['324', '358', '363', '478']</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
-        <v>-16.66</v>
+        <v>-17.03</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>419</t>
+          <t>363</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.85</v>
+        <v>30.21</v>
       </c>
       <c r="G14" t="n">
-        <v>24.12</v>
+        <v>44.05</v>
       </c>
     </row>
     <row r="15">
@@ -822,25 +822,25 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>['331']</t>
+          <t>['142', '244', '280', '381', '458', '70']</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D15" t="n">
-        <v>-16.29</v>
+        <v>-14.49</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>331</t>
+          <t>70</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>-16.29</v>
+        <v>19.39</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>24.47</v>
       </c>
     </row>
     <row r="16">
@@ -849,14 +849,14 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>['136', '169', '193', '211', '245', '291', '308', '309', '357', '392', '40', '414', '435', '478', '58']</t>
+          <t>['392', '435']</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
-        <v>-14.39</v>
+        <v>-12.95</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -864,10 +864,10 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>8.43</v>
+        <v>1.53</v>
       </c>
       <c r="G16" t="n">
-        <v>18.57</v>
+        <v>14.48</v>
       </c>
     </row>
     <row r="17">
@@ -876,25 +876,25 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>['398']</t>
+          <t>['159', '287', '356', '378', '379']</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
-        <v>-14.13</v>
+        <v>-12.07</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>398</t>
+          <t>379</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>-14.13</v>
+        <v>-9.529999999999999</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>1.74</v>
       </c>
     </row>
     <row r="18">
@@ -903,25 +903,25 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>['129', '314', '492', '494']</t>
+          <t>['410']</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D18" t="n">
-        <v>-13.69</v>
+        <v>-11.67</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>494</t>
+          <t>410</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>-6.27</v>
+        <v>-11.67</v>
       </c>
       <c r="G18" t="n">
-        <v>5.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -930,25 +930,25 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>['102', '103', '104', '108', '120', '133', '134', '135', '137', '149', '14', '150', '158', '159', '167', '16', '183', '18', '198', '203', '205', '20', '216', '217', '219', '22', '231', '240', '252', '258', '25', '274', '286', '290', '29', '302', '305', '30', '325', '348', '35', '384', '405', '43', '440', '447', '44', '452', '46', '50', '51', '57', '71', '72', '76', '81', '87', '88', '90']</t>
+          <t>['488']</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>59</v>
+        <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>-13.13</v>
+        <v>-7.28</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>274</t>
+          <t>488</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>18.18</v>
+        <v>-7.28</v>
       </c>
       <c r="G19" t="n">
-        <v>24.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -957,22 +957,22 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>['383']</t>
+          <t>['482']</t>
         </is>
       </c>
       <c r="C20" t="n">
         <v>1</v>
       </c>
       <c r="D20" t="n">
-        <v>-11.72</v>
+        <v>-7.19</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>383</t>
+          <t>482</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>-11.72</v>
+        <v>-7.19</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -984,25 +984,25 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>['191', '263', '355', '422']</t>
+          <t>['177', '230', '26', '271', '275', '302', '344', '432', '437', '68', '71', '73', '87', '92']</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="D21" t="n">
-        <v>-10.57</v>
+        <v>-6.98</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>355</t>
+          <t>344</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>5.96</v>
+        <v>18.02</v>
       </c>
       <c r="G21" t="n">
-        <v>13.99</v>
+        <v>13.61</v>
       </c>
     </row>
     <row r="22">
@@ -1011,25 +1011,25 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>['260']</t>
+          <t>['122', '133', '297', '397', '400', '466', '481', '487']</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D22" t="n">
-        <v>-10.42</v>
+        <v>-2.74</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>260</t>
+          <t>397</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>-10.42</v>
+        <v>18.09</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>15.3</v>
       </c>
     </row>
     <row r="23">
@@ -1038,25 +1038,25 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>['115', '171', '229', '318', '437', '442']</t>
+          <t>['353', '365', '424']</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
-        <v>-10.3</v>
+        <v>-2.72</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>437</t>
+          <t>353</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>27.72</v>
+        <v>17.98</v>
       </c>
       <c r="G23" t="n">
-        <v>26.13</v>
+        <v>16.22</v>
       </c>
     </row>
     <row r="24">
@@ -1065,25 +1065,25 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>['271', '349']</t>
+          <t>['499']</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D24" t="n">
-        <v>-9.25</v>
+        <v>-0.57</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>271</t>
+          <t>499</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>-3.33</v>
+        <v>-0.57</v>
       </c>
       <c r="G24" t="n">
-        <v>5.93</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -1092,25 +1092,25 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>['213', '324', '352']</t>
+          <t>['495']</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D25" t="n">
-        <v>-9.029999999999999</v>
+        <v>1.68</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>324</t>
+          <t>495</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>11</v>
+        <v>1.68</v>
       </c>
       <c r="G25" t="n">
-        <v>14.45</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -1119,25 +1119,25 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>['119', '227', '460', '70']</t>
+          <t>['425']</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D26" t="n">
-        <v>-8.73</v>
+        <v>1.72</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>460</t>
+          <t>425</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>17.12</v>
+        <v>1.72</v>
       </c>
       <c r="G26" t="n">
-        <v>19.68</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1146,25 +1146,25 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>['278', '369', '372']</t>
+          <t>['156']</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D27" t="n">
-        <v>-6.79</v>
+        <v>2.47</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>369</t>
+          <t>156</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>13.2</v>
+        <v>2.47</v>
       </c>
       <c r="G27" t="n">
-        <v>19.19</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -1173,25 +1173,25 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>['254', '345', '439', '448', '64']</t>
+          <t>['422']</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D28" t="n">
-        <v>-6.66</v>
+        <v>2.85</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>422</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>5.52</v>
+        <v>2.85</v>
       </c>
       <c r="G28" t="n">
-        <v>12.61</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1200,25 +1200,25 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>['148', '152', '165', '237', '310', '370', '393', '457', '464', '488']</t>
+          <t>['295']</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D29" t="n">
-        <v>-6.1</v>
+        <v>3.5</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>488</t>
+          <t>295</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>12.29</v>
+        <v>3.5</v>
       </c>
       <c r="G29" t="n">
-        <v>13.74</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1227,25 +1227,25 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>['454']</t>
+          <t>['115', '181', '236', '266', '274', '277', '306', '308', '319', '345', '479']</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D30" t="n">
-        <v>-5.28</v>
+        <v>4.91</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>454</t>
+          <t>345</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>-5.28</v>
+        <v>46.34</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>31.15</v>
       </c>
     </row>
     <row r="31">
@@ -1254,22 +1254,22 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>['242']</t>
+          <t>['194']</t>
         </is>
       </c>
       <c r="C31" t="n">
         <v>1</v>
       </c>
       <c r="D31" t="n">
-        <v>-4.57</v>
+        <v>6.93</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>242</t>
+          <t>194</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>-4.57</v>
+        <v>6.93</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -1281,25 +1281,25 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>['382']</t>
+          <t>['221', '449']</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
-        <v>-3.76</v>
+        <v>7.73</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>382</t>
+          <t>449</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>-3.76</v>
+        <v>11.84</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="33">
@@ -1308,25 +1308,25 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>['426']</t>
+          <t>['248', '256', '377', '423']</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
-        <v>-0.68</v>
+        <v>8.289999999999999</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>426</t>
+          <t>256</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>-0.68</v>
+        <v>31.56</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>21.07</v>
       </c>
     </row>
     <row r="34">
@@ -1335,25 +1335,25 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>['122', '174', '248', '322', '397', '54', '86']</t>
+          <t>['125', '235', '457']</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
-        <v>-0.57</v>
+        <v>9.050000000000001</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>86</t>
+          <t>457</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>43.28</v>
+        <v>1289.6</v>
       </c>
       <c r="G34" t="n">
-        <v>36.88</v>
+        <v>905.49</v>
       </c>
     </row>
     <row r="35">
@@ -1362,25 +1362,25 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>['467']</t>
+          <t>['141', '318', '361', '436', '75', '96', '97']</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D35" t="n">
-        <v>1.67</v>
+        <v>11.09</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>467</t>
+          <t>436</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>1.67</v>
+        <v>36.8</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>20.65</v>
       </c>
     </row>
     <row r="36">
@@ -1389,25 +1389,25 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>['455']</t>
+          <t>['243', '311', '398', '438', '486']</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D36" t="n">
-        <v>1.77</v>
+        <v>14.45</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>455</t>
+          <t>438</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>1.77</v>
+        <v>19.72</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>7.12</v>
       </c>
     </row>
     <row r="37">
@@ -1416,25 +1416,25 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>['95']</t>
+          <t>['300', '314', '90']</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
-        <v>4.27</v>
+        <v>16.56</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>90</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>4.27</v>
+        <v>44.21</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>24.19</v>
       </c>
     </row>
     <row r="38">
@@ -1443,22 +1443,22 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>['346']</t>
+          <t>['404']</t>
         </is>
       </c>
       <c r="C38" t="n">
         <v>1</v>
       </c>
       <c r="D38" t="n">
-        <v>5.35</v>
+        <v>17.28</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>346</t>
+          <t>404</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>5.35</v>
+        <v>17.28</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -1470,25 +1470,25 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>['178', '476']</t>
+          <t>['483']</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D39" t="n">
-        <v>6.31</v>
+        <v>17.33</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>178</t>
+          <t>483</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>12.9</v>
+        <v>17.33</v>
       </c>
       <c r="G39" t="n">
-        <v>6.59</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1497,22 +1497,22 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>['469']</t>
+          <t>['492']</t>
         </is>
       </c>
       <c r="C40" t="n">
         <v>1</v>
       </c>
       <c r="D40" t="n">
-        <v>9.699999999999999</v>
+        <v>17.4</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>469</t>
+          <t>492</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>9.699999999999999</v>
+        <v>17.4</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -1524,25 +1524,25 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>['434']</t>
+          <t>['190', '421', '426', '472']</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
-        <v>13.86</v>
+        <v>17.6</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>434</t>
+          <t>472</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>13.86</v>
+        <v>34.2</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>16.26</v>
       </c>
     </row>
     <row r="42">
@@ -1551,25 +1551,25 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>['347']</t>
+          <t>['360', '406', '463', '474']</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
-        <v>14.09</v>
+        <v>17.66</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>347</t>
+          <t>474</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>14.09</v>
+        <v>35.55</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>12.78</v>
       </c>
     </row>
     <row r="43">
@@ -1578,25 +1578,25 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>['128', '13', '143', '156', '15', '170', '239', '23', '265', '33', '37', '48', '4', '65', '74', '99']</t>
+          <t>['447']</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="D43" t="n">
-        <v>16.09</v>
+        <v>19.05</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>265</t>
+          <t>447</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>33.98</v>
+        <v>19.05</v>
       </c>
       <c r="G43" t="n">
-        <v>20.15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1605,25 +1605,25 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>['339']</t>
+          <t>['252', '350', '41', '49', '59']</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
-        <v>18.25</v>
+        <v>19.42</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>339</t>
+          <t>350</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>18.25</v>
+        <v>30.89</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>14.22</v>
       </c>
     </row>
     <row r="45">
@@ -1632,25 +1632,25 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>['450']</t>
+          <t>['171', '223', '323', '382']</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
-        <v>18.61</v>
+        <v>23.63</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>450</t>
+          <t>382</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>18.61</v>
+        <v>40.61</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>14.05</v>
       </c>
     </row>
     <row r="46">
@@ -1659,22 +1659,22 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>['141']</t>
+          <t>['489']</t>
         </is>
       </c>
       <c r="C46" t="n">
         <v>1</v>
       </c>
       <c r="D46" t="n">
-        <v>20.77</v>
+        <v>23.82</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>141</t>
+          <t>489</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>20.77</v>
+        <v>23.82</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -1686,25 +1686,25 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>['226', '342', '39', '431']</t>
+          <t>['149', '372', '81']</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
-        <v>21.36</v>
+        <v>24.61</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>226</t>
+          <t>372</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>31.74</v>
+        <v>41.88</v>
       </c>
       <c r="G47" t="n">
-        <v>6.7</v>
+        <v>15.28</v>
       </c>
     </row>
     <row r="48">
@@ -1713,25 +1713,25 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>['423']</t>
+          <t>['106', '116', '119', '120', '147', '154', '199', '19', '1', '207', '21', '225', '228', '25', '27', '285', '322', '38', '409', '417', '430', '431', '46', '498', '65', '67', '6', '85', '93']</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="D48" t="n">
-        <v>21.61</v>
+        <v>25.66</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>423</t>
+          <t>285</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>21.61</v>
+        <v>62.76</v>
       </c>
       <c r="G48" t="n">
-        <v>0</v>
+        <v>23.89</v>
       </c>
     </row>
     <row r="49">
@@ -1740,25 +1740,25 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>['111', '112', '124', '130', '139', '187', '206', '214', '235', '257', '333', '353', '362', '406', '411', '418', '466', '486', '498', '68', '73']</t>
+          <t>['113', '121', '130', '137', '157', '160', '247', '273', '278', '370', '387', '416', '433', '460', '94']</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D49" t="n">
-        <v>22.35</v>
+        <v>27.57</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>130</t>
+          <t>160</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>49.36</v>
+        <v>62.25</v>
       </c>
       <c r="G49" t="n">
-        <v>14.05</v>
+        <v>16.97</v>
       </c>
     </row>
     <row r="50">
@@ -1767,25 +1767,25 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>['264']</t>
+          <t>['307', '429']</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
-        <v>22.49</v>
+        <v>27.96</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>264</t>
+          <t>429</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>22.49</v>
+        <v>51.97</v>
       </c>
       <c r="G50" t="n">
-        <v>0</v>
+        <v>24.01</v>
       </c>
     </row>
     <row r="51">
@@ -1794,25 +1794,25 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>['407', '429', '484']</t>
+          <t>['140', '192', '208', '214', '238', '239', '283', '380', '385', '471']</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D51" t="n">
-        <v>23.34</v>
+        <v>29.09</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>429</t>
+          <t>471</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>37.01</v>
+        <v>62.58</v>
       </c>
       <c r="G51" t="n">
-        <v>10</v>
+        <v>20.93</v>
       </c>
     </row>
     <row r="52">
@@ -1821,25 +1821,25 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>['24', '287', '60', '79', '92', '93']</t>
+          <t>['451']</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D52" t="n">
-        <v>23.61</v>
+        <v>36.02</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>451</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>34.31</v>
+        <v>36.02</v>
       </c>
       <c r="G52" t="n">
-        <v>9.130000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -1848,25 +1848,25 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>['192', '230', '332', '388']</t>
+          <t>['448']</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D53" t="n">
-        <v>25.45</v>
+        <v>37.36</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>332</t>
+          <t>448</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>39.41</v>
+        <v>37.36</v>
       </c>
       <c r="G53" t="n">
-        <v>13.12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -1875,25 +1875,25 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>['221', '319', '359', '409', '436', '473']</t>
+          <t>['340', '366']</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
-        <v>26.13</v>
+        <v>37.37</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>409</t>
+          <t>366</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>66.34</v>
+        <v>46.28</v>
       </c>
       <c r="G54" t="n">
-        <v>41.16</v>
+        <v>8.91</v>
       </c>
     </row>
     <row r="55">
@@ -1902,25 +1902,25 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>['311', '477']</t>
+          <t>['124', '185', '88', '98']</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
-        <v>26.42</v>
+        <v>40.83</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>311</t>
+          <t>88</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>29.95</v>
+        <v>50.26</v>
       </c>
       <c r="G55" t="n">
-        <v>3.53</v>
+        <v>9.82</v>
       </c>
     </row>
     <row r="56">
@@ -1929,25 +1929,25 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>['114', '154', '189', '19', '21', '234', '243', '253', '2', '303', '36', '41', '421', '42', '487', '49', '56', '63', '7', '97']</t>
+          <t>['151', '197', '420']</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="D56" t="n">
-        <v>29.55</v>
+        <v>42.61</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>197</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>48.83</v>
+        <v>55.97</v>
       </c>
       <c r="G56" t="n">
-        <v>9.44</v>
+        <v>11.13</v>
       </c>
     </row>
     <row r="57">
@@ -1956,25 +1956,25 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>['330', '451']</t>
+          <t>['217', '241']</t>
         </is>
       </c>
       <c r="C57" t="n">
         <v>2</v>
       </c>
       <c r="D57" t="n">
-        <v>30.39</v>
+        <v>43.61</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>330</t>
+          <t>241</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>31.82</v>
+        <v>50.28</v>
       </c>
       <c r="G57" t="n">
-        <v>1.43</v>
+        <v>6.67</v>
       </c>
     </row>
     <row r="58">
@@ -1983,22 +1983,22 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>['483']</t>
+          <t>['269']</t>
         </is>
       </c>
       <c r="C58" t="n">
         <v>1</v>
       </c>
       <c r="D58" t="n">
-        <v>30.69</v>
+        <v>43.86</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>483</t>
+          <t>269</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>30.69</v>
+        <v>43.86</v>
       </c>
       <c r="G58" t="n">
         <v>0</v>
@@ -2010,25 +2010,25 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>['444']</t>
+          <t>['136', '148']</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
-        <v>32.45</v>
+        <v>46.42</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>444</t>
+          <t>148</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>32.45</v>
+        <v>66.29000000000001</v>
       </c>
       <c r="G59" t="n">
-        <v>0</v>
+        <v>19.87</v>
       </c>
     </row>
     <row r="60">
@@ -2037,25 +2037,25 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>['292', '417']</t>
+          <t>['389', '470']</t>
         </is>
       </c>
       <c r="C60" t="n">
         <v>2</v>
       </c>
       <c r="D60" t="n">
-        <v>34.09</v>
+        <v>50.27</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>292</t>
+          <t>389</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>45.76</v>
+        <v>53.76</v>
       </c>
       <c r="G60" t="n">
-        <v>11.67</v>
+        <v>3.49</v>
       </c>
     </row>
     <row r="61">
@@ -2064,25 +2064,25 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>['224', '453']</t>
+          <t>['281']</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D61" t="n">
-        <v>34.33</v>
+        <v>52.96</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>224</t>
+          <t>281</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>37.35</v>
+        <v>52.96</v>
       </c>
       <c r="G61" t="n">
-        <v>3.02</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -2091,25 +2091,25 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>['493']</t>
+          <t>['178', '219']</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D62" t="n">
-        <v>36.02</v>
+        <v>54.68</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>493</t>
+          <t>178</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>36.02</v>
+        <v>77.81</v>
       </c>
       <c r="G62" t="n">
-        <v>0</v>
+        <v>23.13</v>
       </c>
     </row>
     <row r="63">
@@ -2118,22 +2118,22 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>['441']</t>
+          <t>['386']</t>
         </is>
       </c>
       <c r="C63" t="n">
         <v>1</v>
       </c>
       <c r="D63" t="n">
-        <v>36.75</v>
+        <v>56.64</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>441</t>
+          <t>386</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>36.75</v>
+        <v>56.64</v>
       </c>
       <c r="G63" t="n">
         <v>0</v>
@@ -2145,25 +2145,25 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>['402', '416']</t>
+          <t>['396']</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D64" t="n">
-        <v>40.75</v>
+        <v>64.7</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>416</t>
+          <t>396</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>56.37</v>
+        <v>64.7</v>
       </c>
       <c r="G64" t="n">
-        <v>15.61</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -2172,22 +2172,22 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>['317']</t>
+          <t>['384']</t>
         </is>
       </c>
       <c r="C65" t="n">
         <v>1</v>
       </c>
       <c r="D65" t="n">
-        <v>41.87</v>
+        <v>68.66</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>317</t>
+          <t>384</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>41.87</v>
+        <v>68.66</v>
       </c>
       <c r="G65" t="n">
         <v>0</v>
@@ -2199,22 +2199,22 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>['489']</t>
+          <t>['240']</t>
         </is>
       </c>
       <c r="C66" t="n">
         <v>1</v>
       </c>
       <c r="D66" t="n">
-        <v>42.16</v>
+        <v>69.01000000000001</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>489</t>
+          <t>240</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>42.16</v>
+        <v>69.01000000000001</v>
       </c>
       <c r="G66" t="n">
         <v>0</v>
@@ -2226,25 +2226,25 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>['337', '367']</t>
+          <t>['203', '303', '57']</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D67" t="n">
-        <v>46.67</v>
+        <v>69.87</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>337</t>
+          <t>57</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>55.27</v>
+        <v>84.03</v>
       </c>
       <c r="G67" t="n">
-        <v>8.6</v>
+        <v>10.31</v>
       </c>
     </row>
     <row r="68">
@@ -2253,25 +2253,25 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>['220', '321', '351', '399', '496', '82']</t>
+          <t>['325']</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D68" t="n">
-        <v>53.45</v>
+        <v>71.12</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>220</t>
+          <t>325</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>119</v>
+        <v>71.12</v>
       </c>
       <c r="G68" t="n">
-        <v>39.78</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -2280,22 +2280,22 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>['186']</t>
+          <t>['343']</t>
         </is>
       </c>
       <c r="C69" t="n">
         <v>1</v>
       </c>
       <c r="D69" t="n">
-        <v>53.88</v>
+        <v>72.70999999999999</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>186</t>
+          <t>343</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>53.88</v>
+        <v>72.70999999999999</v>
       </c>
       <c r="G69" t="n">
         <v>0</v>
@@ -2307,25 +2307,25 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>['53']</t>
+          <t>['14', '233', '309', '390', '434', '62']</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D70" t="n">
-        <v>61.22</v>
+        <v>75.83</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>434</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>61.22</v>
+        <v>90.88</v>
       </c>
       <c r="G70" t="n">
-        <v>0</v>
+        <v>8.84</v>
       </c>
     </row>
     <row r="71">
@@ -2334,25 +2334,25 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>['267', '364', '379', '468']</t>
+          <t>['454']</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D71" t="n">
-        <v>61.73</v>
+        <v>76.67</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>468</t>
+          <t>454</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>70.76000000000001</v>
+        <v>76.67</v>
       </c>
       <c r="G71" t="n">
-        <v>5.95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -2361,25 +2361,25 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>['109', '142', '161', '184', '190', '262', '26', '334', '368', '38', '3', '5']</t>
+          <t>['53']</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="D72" t="n">
-        <v>71.23999999999999</v>
+        <v>82.38</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>109</t>
+          <t>53</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>86.44</v>
+        <v>82.38</v>
       </c>
       <c r="G72" t="n">
-        <v>16.82</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
@@ -2388,25 +2388,25 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>['433']</t>
+          <t>['10', '146', '249', '61', '69']</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D73" t="n">
-        <v>74.44</v>
+        <v>83.59</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>433</t>
+          <t>249</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>74.44</v>
+        <v>109.76</v>
       </c>
       <c r="G73" t="n">
-        <v>0</v>
+        <v>14.28</v>
       </c>
     </row>
     <row r="74">
@@ -2415,25 +2415,25 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>['350', '425']</t>
+          <t>['342']</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D74" t="n">
-        <v>75.81999999999999</v>
+        <v>85.06999999999999</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>425</t>
+          <t>342</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>80.90000000000001</v>
+        <v>85.06999999999999</v>
       </c>
       <c r="G74" t="n">
-        <v>5.09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -2442,22 +2442,22 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>['201']</t>
+          <t>['493']</t>
         </is>
       </c>
       <c r="C75" t="n">
         <v>1</v>
       </c>
       <c r="D75" t="n">
-        <v>81.55</v>
+        <v>89.12</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>201</t>
+          <t>493</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>81.55</v>
+        <v>89.12</v>
       </c>
       <c r="G75" t="n">
         <v>0</v>
@@ -2469,22 +2469,22 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>['386']</t>
+          <t>['261']</t>
         </is>
       </c>
       <c r="C76" t="n">
         <v>1</v>
       </c>
       <c r="D76" t="n">
-        <v>86.3</v>
+        <v>94.91</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>386</t>
+          <t>261</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>86.3</v>
+        <v>94.91</v>
       </c>
       <c r="G76" t="n">
         <v>0</v>
@@ -2496,22 +2496,22 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>['395']</t>
+          <t>['78']</t>
         </is>
       </c>
       <c r="C77" t="n">
         <v>1</v>
       </c>
       <c r="D77" t="n">
-        <v>89.43000000000001</v>
+        <v>96.45999999999999</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>395</t>
+          <t>78</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>89.43000000000001</v>
+        <v>96.45999999999999</v>
       </c>
       <c r="G77" t="n">
         <v>0</v>
@@ -2523,25 +2523,25 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>['52']</t>
+          <t>['105', '491']</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
-        <v>93.19</v>
+        <v>97.12</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>105</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>93.19</v>
+        <v>117.84</v>
       </c>
       <c r="G78" t="n">
-        <v>0</v>
+        <v>20.72</v>
       </c>
     </row>
     <row r="79">
@@ -2550,22 +2550,22 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>['465']</t>
+          <t>['79']</t>
         </is>
       </c>
       <c r="C79" t="n">
         <v>1</v>
       </c>
       <c r="D79" t="n">
-        <v>94.11</v>
+        <v>97.63</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>465</t>
+          <t>79</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>94.11</v>
+        <v>97.63</v>
       </c>
       <c r="G79" t="n">
         <v>0</v>
@@ -2577,25 +2577,25 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>['283', '479']</t>
+          <t>['443']</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D80" t="n">
-        <v>95.79000000000001</v>
+        <v>98.88</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>479</t>
+          <t>443</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>99.41</v>
+        <v>98.88</v>
       </c>
       <c r="G80" t="n">
-        <v>3.62</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
@@ -2604,22 +2604,22 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>['80']</t>
+          <t>['282']</t>
         </is>
       </c>
       <c r="C81" t="n">
         <v>1</v>
       </c>
       <c r="D81" t="n">
-        <v>95.8</v>
+        <v>100.95</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>282</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>95.8</v>
+        <v>100.95</v>
       </c>
       <c r="G81" t="n">
         <v>0</v>
@@ -2631,22 +2631,22 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>['157']</t>
+          <t>['229']</t>
         </is>
       </c>
       <c r="C82" t="n">
         <v>1</v>
       </c>
       <c r="D82" t="n">
-        <v>96.08</v>
+        <v>101.17</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>157</t>
+          <t>229</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>96.08</v>
+        <v>101.17</v>
       </c>
       <c r="G82" t="n">
         <v>0</v>
@@ -2658,25 +2658,25 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>['256', '401']</t>
+          <t>['123', '348', '413', '427', '452']</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D83" t="n">
-        <v>108.62</v>
+        <v>113.31</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>401</t>
+          <t>348</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>128.81</v>
+        <v>132.4</v>
       </c>
       <c r="G83" t="n">
-        <v>20.19</v>
+        <v>18.25</v>
       </c>
     </row>
     <row r="84">
@@ -2685,25 +2685,25 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>['180', '365', '463', '69', '75']</t>
+          <t>['18', '31']</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
-        <v>115.29</v>
+        <v>117.83</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>463</t>
+          <t>31</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>128.33</v>
+        <v>122.76</v>
       </c>
       <c r="G84" t="n">
-        <v>10.1</v>
+        <v>4.93</v>
       </c>
     </row>
     <row r="85">
@@ -2712,25 +2712,25 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>['200', '288', '446']</t>
+          <t>['193']</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D85" t="n">
-        <v>118.31</v>
+        <v>123.12</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>288</t>
+          <t>193</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>129.13</v>
+        <v>123.12</v>
       </c>
       <c r="G85" t="n">
-        <v>13.03</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -2739,25 +2739,25 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>['177']</t>
+          <t>['347', '440']</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
-        <v>118.77</v>
+        <v>125.52</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>177</t>
+          <t>347</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>118.77</v>
+        <v>134.34</v>
       </c>
       <c r="G86" t="n">
-        <v>0</v>
+        <v>8.82</v>
       </c>
     </row>
     <row r="87">
@@ -2766,22 +2766,22 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>['500']</t>
+          <t>['107']</t>
         </is>
       </c>
       <c r="C87" t="n">
         <v>1</v>
       </c>
       <c r="D87" t="n">
-        <v>126.04</v>
+        <v>125.78</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>500</t>
+          <t>107</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>126.04</v>
+        <v>125.78</v>
       </c>
       <c r="G87" t="n">
         <v>0</v>
@@ -2793,25 +2793,25 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>['107', '204', '387']</t>
+          <t>['362']</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D88" t="n">
-        <v>203.46</v>
+        <v>132.77</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>387</t>
+          <t>362</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>204.25</v>
+        <v>132.77</v>
       </c>
       <c r="G88" t="n">
-        <v>0.87</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -2820,25 +2820,25 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>['182', '208', '285', '366', '404', '458', '495']</t>
+          <t>['173', '180', '316']</t>
         </is>
       </c>
       <c r="C89" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
-        <v>283.59</v>
+        <v>137.74</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>404</t>
+          <t>180</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>296.63</v>
+        <v>139.69</v>
       </c>
       <c r="G89" t="n">
-        <v>8.15</v>
+        <v>2.51</v>
       </c>
     </row>
     <row r="90">
@@ -2847,25 +2847,25 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>['329', '377', '394', '475']</t>
+          <t>['333']</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D90" t="n">
-        <v>316.71</v>
+        <v>141.15</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>329</t>
+          <t>333</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>345.21</v>
+        <v>141.15</v>
       </c>
       <c r="G90" t="n">
-        <v>20.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91">
@@ -2874,25 +2874,25 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>['117', '144', '232', '282', '316']</t>
+          <t>['202', '206', '245', '328']</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
-        <v>322.41</v>
+        <v>147.46</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>232</t>
+          <t>202</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>355.12</v>
+        <v>160.77</v>
       </c>
       <c r="G91" t="n">
-        <v>18.55</v>
+        <v>12.07</v>
       </c>
     </row>
     <row r="92">
@@ -2901,25 +2901,25 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>['100', '113', '138', '244', '462', '61']</t>
+          <t>['349', '402']</t>
         </is>
       </c>
       <c r="C92" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
-        <v>340.3</v>
+        <v>167.81</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>349</t>
         </is>
       </c>
       <c r="F92" t="n">
-        <v>349.28</v>
+        <v>169.2</v>
       </c>
       <c r="G92" t="n">
-        <v>12.59</v>
+        <v>1.39</v>
       </c>
     </row>
     <row r="93">
@@ -2928,25 +2928,25 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>['126', '127', '236', '313', '31', '430', '432', '83']</t>
+          <t>['419']</t>
         </is>
       </c>
       <c r="C93" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D93" t="n">
-        <v>358.67</v>
+        <v>173.17</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>127</t>
+          <t>419</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>371.44</v>
+        <v>173.17</v>
       </c>
       <c r="G93" t="n">
-        <v>9.26</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
@@ -2955,25 +2955,25 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>['10', '11', '12', '151', '17', '195', '1', '32', '34', '391', '412', '6', '8', '96', '9']</t>
+          <t>['411']</t>
         </is>
       </c>
       <c r="C94" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="D94" t="n">
-        <v>371.45</v>
+        <v>174.53</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>151</t>
+          <t>411</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>401.66</v>
+        <v>174.53</v>
       </c>
       <c r="G94" t="n">
-        <v>20.94</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95">
@@ -2982,25 +2982,25 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>['67']</t>
+          <t>['293', '467']</t>
         </is>
       </c>
       <c r="C95" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
-        <v>402.26</v>
+        <v>177.02</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>293</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>402.26</v>
+        <v>180.75</v>
       </c>
       <c r="G95" t="n">
-        <v>0</v>
+        <v>3.72</v>
       </c>
     </row>
     <row r="96">
@@ -3009,25 +3009,25 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>['145', '223', '27', '28', '47']</t>
+          <t>['232', '33', '351', '39', '428']</t>
         </is>
       </c>
       <c r="C96" t="n">
         <v>5</v>
       </c>
       <c r="D96" t="n">
-        <v>409.14</v>
+        <v>178.42</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>232</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>431.31</v>
+        <v>191.88</v>
       </c>
       <c r="G96" t="n">
-        <v>11.99</v>
+        <v>12.93</v>
       </c>
     </row>
     <row r="97">
@@ -3036,22 +3036,22 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>['45']</t>
+          <t>['335']</t>
         </is>
       </c>
       <c r="C97" t="n">
         <v>1</v>
       </c>
       <c r="D97" t="n">
-        <v>445.52</v>
+        <v>208.05</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>335</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>445.52</v>
+        <v>208.05</v>
       </c>
       <c r="G97" t="n">
         <v>0</v>
@@ -3063,25 +3063,25 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>['363', '497']</t>
+          <t>['367']</t>
         </is>
       </c>
       <c r="C98" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D98" t="n">
-        <v>1978.06</v>
+        <v>210.88</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>497</t>
+          <t>367</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>3924.27</v>
+        <v>210.88</v>
       </c>
       <c r="G98" t="n">
-        <v>1946.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -3090,22 +3090,22 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>['299']</t>
+          <t>['265']</t>
         </is>
       </c>
       <c r="C99" t="n">
         <v>1</v>
       </c>
       <c r="D99" t="n">
-        <v>5066.5</v>
+        <v>219.63</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>299</t>
+          <t>265</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>5066.5</v>
+        <v>219.63</v>
       </c>
       <c r="G99" t="n">
         <v>0</v>
@@ -3117,25 +3117,484 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>['218', '312']</t>
+          <t>['103', '215', '251', '291', '355', '376']</t>
         </is>
       </c>
       <c r="C100" t="n">
+        <v>6</v>
+      </c>
+      <c r="D100" t="n">
+        <v>241.34</v>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>355</t>
+        </is>
+      </c>
+      <c r="F100" t="n">
+        <v>262.9</v>
+      </c>
+      <c r="G100" t="n">
+        <v>15.92</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>['262']</t>
+        </is>
+      </c>
+      <c r="C101" t="n">
+        <v>1</v>
+      </c>
+      <c r="D101" t="n">
+        <v>286.85</v>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>262</t>
+        </is>
+      </c>
+      <c r="F101" t="n">
+        <v>286.85</v>
+      </c>
+      <c r="G101" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>['131', '134', '183', '286', '288', '383', '462', '465']</t>
+        </is>
+      </c>
+      <c r="C102" t="n">
+        <v>8</v>
+      </c>
+      <c r="D102" t="n">
+        <v>312.11</v>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>131</t>
+        </is>
+      </c>
+      <c r="F102" t="n">
+        <v>320.36</v>
+      </c>
+      <c r="G102" t="n">
+        <v>8.35</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>['200', '201', '29', '55']</t>
+        </is>
+      </c>
+      <c r="C103" t="n">
+        <v>4</v>
+      </c>
+      <c r="D103" t="n">
+        <v>349.25</v>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>201</t>
+        </is>
+      </c>
+      <c r="F103" t="n">
+        <v>379.53</v>
+      </c>
+      <c r="G103" t="n">
+        <v>39.86</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>['5']</t>
+        </is>
+      </c>
+      <c r="C104" t="n">
+        <v>1</v>
+      </c>
+      <c r="D104" t="n">
+        <v>365.87</v>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F104" t="n">
+        <v>365.87</v>
+      </c>
+      <c r="G104" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>['15', '296', '401', '442', '477']</t>
+        </is>
+      </c>
+      <c r="C105" t="n">
+        <v>5</v>
+      </c>
+      <c r="D105" t="n">
+        <v>366.93</v>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>401</t>
+        </is>
+      </c>
+      <c r="F105" t="n">
+        <v>390.96</v>
+      </c>
+      <c r="G105" t="n">
+        <v>32.43</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>['161', '352', '35']</t>
+        </is>
+      </c>
+      <c r="C106" t="n">
+        <v>3</v>
+      </c>
+      <c r="D106" t="n">
+        <v>396.37</v>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="F106" t="n">
+        <v>411.07</v>
+      </c>
+      <c r="G106" t="n">
+        <v>14.38</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>['104', '128', '158', '16', '179', '186', '2', '405', '44']</t>
+        </is>
+      </c>
+      <c r="C107" t="n">
+        <v>9</v>
+      </c>
+      <c r="D107" t="n">
+        <v>406.28</v>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="F107" t="n">
+        <v>421.67</v>
+      </c>
+      <c r="G107" t="n">
+        <v>16.37</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>['13', '42', '64']</t>
+        </is>
+      </c>
+      <c r="C108" t="n">
+        <v>3</v>
+      </c>
+      <c r="D108" t="n">
+        <v>411.99</v>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="F108" t="n">
+        <v>432.02</v>
+      </c>
+      <c r="G108" t="n">
+        <v>21.11</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>['101']</t>
+        </is>
+      </c>
+      <c r="C109" t="n">
+        <v>1</v>
+      </c>
+      <c r="D109" t="n">
+        <v>443.15</v>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="F109" t="n">
+        <v>443.15</v>
+      </c>
+      <c r="G109" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>['237', '476']</t>
+        </is>
+      </c>
+      <c r="C110" t="n">
         <v>2</v>
       </c>
-      <c r="D100" t="n">
-        <v>8092.5</v>
-      </c>
-      <c r="E100" t="inlineStr">
+      <c r="D110" t="n">
+        <v>1876.74</v>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>476</t>
+        </is>
+      </c>
+      <c r="F110" t="n">
+        <v>1883.9</v>
+      </c>
+      <c r="G110" t="n">
+        <v>7.15</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>['258']</t>
+        </is>
+      </c>
+      <c r="C111" t="n">
+        <v>1</v>
+      </c>
+      <c r="D111" t="n">
+        <v>2475.5</v>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>258</t>
+        </is>
+      </c>
+      <c r="F111" t="n">
+        <v>2475.5</v>
+      </c>
+      <c r="G111" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>['292']</t>
+        </is>
+      </c>
+      <c r="C112" t="n">
+        <v>1</v>
+      </c>
+      <c r="D112" t="n">
+        <v>3319</v>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>292</t>
+        </is>
+      </c>
+      <c r="F112" t="n">
+        <v>3319</v>
+      </c>
+      <c r="G112" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>['89']</t>
+        </is>
+      </c>
+      <c r="C113" t="n">
+        <v>1</v>
+      </c>
+      <c r="D113" t="n">
+        <v>3978.67</v>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+      <c r="F113" t="n">
+        <v>3978.67</v>
+      </c>
+      <c r="G113" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>['117', '187', '188', '339']</t>
+        </is>
+      </c>
+      <c r="C114" t="n">
+        <v>4</v>
+      </c>
+      <c r="D114" t="n">
+        <v>4040.28</v>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>339</t>
+        </is>
+      </c>
+      <c r="F114" t="n">
+        <v>5395.06</v>
+      </c>
+      <c r="G114" t="n">
+        <v>782.1799999999999</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>['250']</t>
+        </is>
+      </c>
+      <c r="C115" t="n">
+        <v>1</v>
+      </c>
+      <c r="D115" t="n">
+        <v>4167.34</v>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="F115" t="n">
+        <v>4167.34</v>
+      </c>
+      <c r="G115" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>['218', '326', '346', '414', '461', '480']</t>
+        </is>
+      </c>
+      <c r="C116" t="n">
+        <v>6</v>
+      </c>
+      <c r="D116" t="n">
+        <v>5343.16</v>
+      </c>
+      <c r="E116" t="inlineStr">
         <is>
           <t>218</t>
         </is>
       </c>
-      <c r="F100" t="n">
-        <v>9194.74</v>
-      </c>
-      <c r="G100" t="n">
-        <v>1102.24</v>
+      <c r="F116" t="n">
+        <v>6392.52</v>
+      </c>
+      <c r="G116" t="n">
+        <v>1155.64</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>['138']</t>
+        </is>
+      </c>
+      <c r="C117" t="n">
+        <v>1</v>
+      </c>
+      <c r="D117" t="n">
+        <v>5989.16</v>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>138</t>
+        </is>
+      </c>
+      <c r="F117" t="n">
+        <v>5989.16</v>
+      </c>
+      <c r="G117" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
